--- a/middleProject/userInfo.xlsx
+++ b/middleProject/userInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>사장</t>
+  </si>
+  <si>
+    <t>oo0871</t>
   </si>
 </sst>
 </file>
@@ -166,13 +169,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
